--- a/documentacion/Requerimientos/29052022_GTE020PDT002f003_sDesarrollo Apk_Recuento_EC Experimental_Ajuste OSIS25.xlsx
+++ b/documentacion/Requerimientos/29052022_GTE020PDT002f003_sDesarrollo Apk_Recuento_EC Experimental_Ajuste OSIS25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kmilo\Downloads\MAC2\DANE\DANE - Censo Economico\CE - Recuento\Entrega 2022\Ajuste 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Dane\2022\repo\dane_recuento_new_2022_personal\documentacion\Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA51718-E467-41C7-BB34-065148A259C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3885ADD9-F0AF-41E3-8924-C763EDC796C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="595" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="859" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. DatosGenerales" sheetId="8" r:id="rId1"/>
@@ -33,9 +33,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -3171,7 +3169,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3229,6 +3227,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3610,7 +3614,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3868,6 +3872,36 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3877,114 +3911,99 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4033,6 +4052,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4057,12 +4094,6 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4072,31 +4103,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6087,79 +6100,79 @@
       <selection activeCell="A27" sqref="A27:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.77734375" style="41" customWidth="1"/>
-    <col min="2" max="3" width="16.44140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="41"/>
-    <col min="5" max="5" width="16.44140625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" style="41" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="41"/>
-    <col min="9" max="10" width="14.77734375" style="41" customWidth="1"/>
-    <col min="11" max="16384" width="11.44140625" style="41"/>
+    <col min="1" max="1" width="44.7109375" style="41" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="41"/>
+    <col min="5" max="5" width="16.42578125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="41" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="41"/>
+    <col min="9" max="10" width="14.7109375" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93"/>
-      <c r="B1" s="114" t="s">
+    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="98"/>
+      <c r="B1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="113" t="s">
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="95" t="s">
         <v>258</v>
       </c>
-      <c r="J1" s="113"/>
-    </row>
-    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="113" t="s">
+      <c r="J1" s="95"/>
+    </row>
+    <row r="2" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="98"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="113"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="98" t="s">
+      <c r="J2" s="95"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="118" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="98"/>
-    </row>
-    <row r="5" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+    </row>
+    <row r="5" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-    </row>
-    <row r="6" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+    </row>
+    <row r="6" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
@@ -6176,44 +6189,44 @@
       <c r="F6" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-    </row>
-    <row r="7" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="119"/>
+      <c r="H6" s="119"/>
+      <c r="I6" s="119"/>
+      <c r="J6" s="119"/>
+    </row>
+    <row r="7" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="119" t="s">
         <v>260</v>
       </c>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-    </row>
-    <row r="8" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
+      <c r="I7" s="119"/>
+      <c r="J7" s="119"/>
+    </row>
+    <row r="8" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="119" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-    </row>
-    <row r="9" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="119"/>
+      <c r="J8" s="119"/>
+    </row>
+    <row r="9" spans="1:10" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>11</v>
       </c>
@@ -6227,254 +6240,254 @@
       <c r="E9" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="100"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-    </row>
-    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="114"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="116"/>
+    </row>
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-    </row>
-    <row r="11" spans="1:10" s="43" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="94" t="s">
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+    </row>
+    <row r="11" spans="1:10" s="43" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-    </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="96" t="s">
+      <c r="B12" s="102"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
-      <c r="G13" s="96"/>
-      <c r="H13" s="96"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="96"/>
-    </row>
-    <row r="14" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="103" t="s">
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
+    </row>
+    <row r="14" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="104" t="s">
         <v>264</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="104"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="96" t="s">
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="105"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="96"/>
-    </row>
-    <row r="16" spans="1:10" ht="48.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="105" t="s">
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="107"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+    </row>
+    <row r="16" spans="1:10" ht="48.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="106" t="s">
         <v>263</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="105"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="96" t="s">
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+    </row>
+    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="96"/>
-      <c r="J17" s="96"/>
-    </row>
-    <row r="18" spans="1:10" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="105" t="s">
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+    </row>
+    <row r="18" spans="1:10" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="B18" s="105"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="105"/>
-    </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="96" t="s">
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-    </row>
-    <row r="20" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103" t="s">
+      <c r="B19" s="107"/>
+      <c r="C19" s="107"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="107"/>
+    </row>
+    <row r="20" spans="1:10" ht="171.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="104" t="s">
         <v>597</v>
       </c>
-      <c r="B20" s="104"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="104"/>
-    </row>
-    <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="94" t="s">
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="105"/>
+    </row>
+    <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-    </row>
-    <row r="23" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="105"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-    </row>
-    <row r="24" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="94" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+    </row>
+    <row r="24" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="94"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
-      <c r="J25" s="94"/>
-    </row>
-    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="96" t="s">
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
+      <c r="J25" s="102"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="96"/>
-      <c r="C26" s="96"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="96"/>
-      <c r="F26" s="96"/>
-      <c r="G26" s="96"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-    </row>
-    <row r="27" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="103" t="s">
+      <c r="B26" s="107"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+    </row>
+    <row r="27" spans="1:10" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="104" t="s">
         <v>607</v>
       </c>
-      <c r="B27" s="104"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="104"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="96" t="s">
+      <c r="B27" s="105"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="105"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="96"/>
-      <c r="J28" s="96"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="107"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="107"/>
+      <c r="H28" s="107"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="107"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="97" t="s">
+      <c r="B29" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="120"/>
+      <c r="D29" s="120"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="120"/>
+      <c r="H29" s="120"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
       <c r="B30" s="52"/>
       <c r="C30" s="53"/>
@@ -6486,391 +6499,443 @@
       <c r="I30" s="53"/>
       <c r="J30" s="54"/>
     </row>
-    <row r="31" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="71" t="s">
         <v>537</v>
       </c>
-      <c r="B31" s="107" t="s">
+      <c r="B31" s="108" t="s">
         <v>542</v>
       </c>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="108"/>
-      <c r="G31" s="108"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="109"/>
-    </row>
-    <row r="32" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C31" s="109"/>
+      <c r="D31" s="109"/>
+      <c r="E31" s="109"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="110"/>
+    </row>
+    <row r="32" spans="1:10" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="71" t="s">
         <v>538</v>
       </c>
-      <c r="B32" s="107" t="s">
+      <c r="B32" s="108" t="s">
         <v>598</v>
       </c>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="109"/>
-    </row>
-    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="109"/>
+      <c r="J32" s="110"/>
+    </row>
+    <row r="33" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="71" t="s">
         <v>538</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="108" t="s">
         <v>541</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
-    </row>
-    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
+    </row>
+    <row r="34" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="71" t="s">
         <v>538</v>
       </c>
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="108" t="s">
         <v>539</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109"/>
-    </row>
-    <row r="35" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="110"/>
+    </row>
+    <row r="35" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="71" t="s">
         <v>538</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="B35" s="108" t="s">
         <v>540</v>
       </c>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="109"/>
-    </row>
-    <row r="36" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="110"/>
+    </row>
+    <row r="36" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="83" t="s">
         <v>602</v>
       </c>
-      <c r="B36" s="110" t="s">
+      <c r="B36" s="111" t="s">
         <v>603</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="112"/>
-    </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
+      <c r="J36" s="113"/>
+    </row>
+    <row r="37" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="84" t="s">
         <v>602</v>
       </c>
-      <c r="B37" s="111" t="s">
+      <c r="B37" s="112" t="s">
         <v>604</v>
       </c>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="112"/>
-    </row>
-    <row r="38" spans="1:10" ht="45.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C37" s="112"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
+      <c r="G37" s="112"/>
+      <c r="H37" s="112"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="113"/>
+    </row>
+    <row r="38" spans="1:10" ht="45.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="85" t="s">
         <v>605</v>
       </c>
-      <c r="B38" s="110" t="s">
+      <c r="B38" s="111" t="s">
         <v>599</v>
       </c>
-      <c r="C38" s="111"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="111"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="111"/>
-      <c r="I38" s="111"/>
-      <c r="J38" s="112"/>
-    </row>
-    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="112"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
+      <c r="G38" s="112"/>
+      <c r="H38" s="112"/>
+      <c r="I38" s="112"/>
+      <c r="J38" s="113"/>
+    </row>
+    <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="90"/>
-      <c r="J39" s="91"/>
-    </row>
-    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="99"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="101"/>
+    </row>
+    <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="90"/>
-      <c r="J40" s="91"/>
-    </row>
-    <row r="41" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="94" t="s">
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
+    </row>
+    <row r="41" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="94"/>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
-      <c r="E42" s="94"/>
-      <c r="F42" s="94"/>
-      <c r="G42" s="94"/>
-      <c r="H42" s="94"/>
-      <c r="I42" s="94"/>
-      <c r="J42" s="94"/>
-    </row>
-    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="102"/>
+      <c r="C42" s="102"/>
+      <c r="D42" s="102"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="102"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="102"/>
+    </row>
+    <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="95" t="s">
+      <c r="B43" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="94"/>
       <c r="F43" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="95" t="s">
+      <c r="G43" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-    </row>
-    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H43" s="94"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="94"/>
+    </row>
+    <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="99" t="s">
         <v>269</v>
       </c>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="91"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="101"/>
       <c r="F44" s="44"/>
-      <c r="G44" s="116" t="s">
+      <c r="G44" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="91"/>
-    </row>
-    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
+      <c r="J44" s="101"/>
+    </row>
+    <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="91"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="100"/>
+      <c r="E45" s="101"/>
       <c r="F45" s="44"/>
-      <c r="G45" s="116" t="s">
+      <c r="G45" s="103" t="s">
         <v>271</v>
       </c>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="91"/>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
+      <c r="J45" s="101"/>
+    </row>
+    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="99" t="s">
         <v>268</v>
       </c>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="91"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="44"/>
-      <c r="G46" s="116" t="s">
+      <c r="G46" s="103" t="s">
         <v>281</v>
       </c>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="91"/>
-    </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
+      <c r="J46" s="101"/>
+    </row>
+    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="91"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="101"/>
       <c r="F47" s="44"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="90"/>
-      <c r="J47" s="91"/>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="94" t="s">
+      <c r="G47" s="99"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101"/>
+    </row>
+    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="94"/>
-      <c r="C48" s="94"/>
-      <c r="D48" s="94"/>
-      <c r="E48" s="94"/>
-      <c r="F48" s="94"/>
-      <c r="G48" s="94"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="94"/>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="102"/>
+    </row>
+    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="95" t="s">
+      <c r="B49" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
       <c r="F49" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="95" t="s">
+      <c r="G49" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="95"/>
-      <c r="I49" s="95"/>
-      <c r="J49" s="95"/>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94"/>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="99" t="s">
         <v>266</v>
       </c>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="91"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="100"/>
+      <c r="E50" s="101"/>
       <c r="F50" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="G50" s="89"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="91"/>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="99"/>
+      <c r="H50" s="100"/>
+      <c r="I50" s="100"/>
+      <c r="J50" s="101"/>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="44"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="91"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="101"/>
       <c r="F51" s="44"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="91"/>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="94" t="s">
+      <c r="G51" s="99"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="100"/>
+      <c r="J51" s="101"/>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="94"/>
-      <c r="C53" s="94"/>
-      <c r="D53" s="94"/>
-      <c r="E53" s="94"/>
-      <c r="F53" s="94"/>
-      <c r="G53" s="94"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="94"/>
-      <c r="J53" s="94"/>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="102"/>
+      <c r="C53" s="102"/>
+      <c r="D53" s="102"/>
+      <c r="E53" s="102"/>
+      <c r="F53" s="102"/>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42"/>
-      <c r="B54" s="95" t="s">
+      <c r="B54" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="95"/>
-      <c r="D54" s="95" t="s">
+      <c r="C54" s="94"/>
+      <c r="D54" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="E54" s="95"/>
-      <c r="F54" s="95"/>
-      <c r="G54" s="95" t="s">
+      <c r="E54" s="94"/>
+      <c r="F54" s="94"/>
+      <c r="G54" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="H54" s="95"/>
-      <c r="I54" s="95" t="s">
+      <c r="H54" s="94"/>
+      <c r="I54" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="J54" s="95"/>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="94"/>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="121" t="s">
         <v>38</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="93"/>
-      <c r="I55" s="93"/>
-      <c r="J55" s="93"/>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="121"/>
+      <c r="D55" s="98"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="C56" s="92"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="93"/>
-      <c r="I56" s="93"/>
-      <c r="J56" s="93"/>
+      <c r="C56" s="121"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="68">
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="A53:J53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:F54"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="B39:J39"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A28:J28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:J33"/>
+    <mergeCell ref="B34:J34"/>
+    <mergeCell ref="B35:J35"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B38:J38"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="G49:J49"/>
     <mergeCell ref="I2:J2"/>
@@ -6887,58 +6952,6 @@
     <mergeCell ref="G44:J44"/>
     <mergeCell ref="G45:J45"/>
     <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:J33"/>
-    <mergeCell ref="B34:J34"/>
-    <mergeCell ref="B35:J35"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="B37:J37"/>
-    <mergeCell ref="B38:J38"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A16:J16"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="B39:J39"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="A12:J12"/>
-    <mergeCell ref="A28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="A53:J53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="I55:J55"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G44" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -6961,64 +6974,64 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.21875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="57.21875" style="45" customWidth="1"/>
+    <col min="1" max="2" width="19.28515625" style="45" customWidth="1"/>
+    <col min="3" max="3" width="57.28515625" style="45" customWidth="1"/>
     <col min="4" max="4" width="68" style="45" customWidth="1"/>
-    <col min="5" max="5" width="21.77734375" style="45" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="45" customWidth="1"/>
     <col min="6" max="6" width="24" style="45" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="45" customWidth="1"/>
-    <col min="8" max="8" width="22.5546875" style="45" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="45"/>
+    <col min="7" max="7" width="14.5703125" style="45" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" style="45" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
-      <c r="C1" s="114" t="s">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="113" t="s">
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="113"/>
-    </row>
-    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="113" t="s">
+      <c r="H1" s="95"/>
+    </row>
+    <row r="2" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="113"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94" t="s">
+      <c r="H2" s="95"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="94"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="102"/>
+      <c r="H4" s="102"/>
+    </row>
+    <row r="5" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A5" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="132" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="117"/>
+      <c r="C5" s="132"/>
       <c r="D5" s="59" t="s">
         <v>25</v>
       </c>
@@ -7028,19 +7041,19 @@
       <c r="F5" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="117" t="s">
+      <c r="G5" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="117"/>
-    </row>
-    <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="132"/>
+    </row>
+    <row r="6" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="56">
         <v>1</v>
       </c>
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="124" t="s">
         <v>279</v>
       </c>
-      <c r="C6" s="119"/>
+      <c r="C6" s="125"/>
       <c r="D6" s="70" t="s">
         <v>543</v>
       </c>
@@ -7050,19 +7063,19 @@
       <c r="F6" s="68" t="s">
         <v>544</v>
       </c>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="111" t="s">
         <v>273</v>
       </c>
-      <c r="H6" s="112"/>
-    </row>
-    <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="113"/>
+    </row>
+    <row r="7" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="66">
         <v>2</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="130" t="s">
         <v>278</v>
       </c>
-      <c r="C7" s="125"/>
+      <c r="C7" s="131"/>
       <c r="D7" s="69" t="s">
         <v>545</v>
       </c>
@@ -7072,19 +7085,19 @@
       <c r="F7" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="G7" s="120" t="s">
+      <c r="G7" s="126" t="s">
         <v>275</v>
       </c>
-      <c r="H7" s="121"/>
-    </row>
-    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="127"/>
+    </row>
+    <row r="8" spans="1:8" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="56">
         <v>3</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="68" t="s">
         <v>546</v>
       </c>
@@ -7094,19 +7107,19 @@
       <c r="F8" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="110" t="s">
+      <c r="G8" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="H8" s="112"/>
-    </row>
-    <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="113"/>
+    </row>
+    <row r="9" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="56">
         <v>4</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="99" t="s">
         <v>282</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="68" t="s">
         <v>283</v>
       </c>
@@ -7116,19 +7129,19 @@
       <c r="F9" s="68" t="s">
         <v>284</v>
       </c>
-      <c r="G9" s="110" t="s">
+      <c r="G9" s="111" t="s">
         <v>287</v>
       </c>
-      <c r="H9" s="112"/>
-    </row>
-    <row r="10" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="113"/>
+    </row>
+    <row r="10" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56">
         <v>5</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="99" t="s">
         <v>547</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="68" t="s">
         <v>548</v>
       </c>
@@ -7138,19 +7151,19 @@
       <c r="F10" s="68" t="s">
         <v>285</v>
       </c>
-      <c r="G10" s="110" t="s">
+      <c r="G10" s="111" t="s">
         <v>549</v>
       </c>
-      <c r="H10" s="112"/>
-    </row>
-    <row r="11" spans="1:8" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="113"/>
+    </row>
+    <row r="11" spans="1:8" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
         <v>6</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="99" t="s">
         <v>547</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="61" t="s">
         <v>550</v>
       </c>
@@ -7160,19 +7173,19 @@
       <c r="F11" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="G11" s="122" t="s">
+      <c r="G11" s="128" t="s">
         <v>551</v>
       </c>
-      <c r="H11" s="123"/>
-    </row>
-    <row r="12" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="129"/>
+    </row>
+    <row r="12" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="82">
         <v>7</v>
       </c>
-      <c r="B12" s="126" t="s">
+      <c r="B12" s="122" t="s">
         <v>552</v>
       </c>
-      <c r="C12" s="127"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="61" t="s">
         <v>553</v>
       </c>
@@ -7182,294 +7195,255 @@
       <c r="F12" s="70" t="s">
         <v>554</v>
       </c>
-      <c r="G12" s="118" t="s">
+      <c r="G12" s="124" t="s">
         <v>555</v>
       </c>
-      <c r="H12" s="119"/>
-    </row>
-    <row r="13" spans="1:8" ht="59.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="125"/>
+    </row>
+    <row r="13" spans="1:8" ht="59.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="56">
         <v>8</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="99" t="s">
         <v>606</v>
       </c>
-      <c r="C13" s="91"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="68" t="s">
         <v>599</v>
       </c>
       <c r="E13" s="47"/>
       <c r="F13" s="56"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="56"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="56"/>
       <c r="E14" s="47"/>
       <c r="F14" s="56"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G14" s="98"/>
+      <c r="H14" s="98"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="56"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="56"/>
       <c r="E15" s="47"/>
       <c r="F15" s="56"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="56"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="91"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="56"/>
       <c r="E16" s="47"/>
       <c r="F16" s="56"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="98"/>
+      <c r="H16" s="98"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="56"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="91"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="56"/>
       <c r="E17" s="47"/>
       <c r="F17" s="56"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+    </row>
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="56"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="91"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="56"/>
       <c r="E18" s="47"/>
       <c r="F18" s="56"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="91"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="56"/>
       <c r="E19" s="47"/>
       <c r="F19" s="56"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="56"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="91"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="56"/>
       <c r="E20" s="47"/>
       <c r="F20" s="56"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="56"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="56"/>
       <c r="E21" s="47"/>
       <c r="F21" s="56"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-    </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+    </row>
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="56"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="56"/>
       <c r="E22" s="47"/>
       <c r="F22" s="56"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="93"/>
-    </row>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="56"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="91"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="56"/>
       <c r="E23" s="47"/>
       <c r="F23" s="56"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="93"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="56"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="91"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="56"/>
       <c r="E24" s="47"/>
       <c r="F24" s="56"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="56"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="91"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="56"/>
       <c r="E25" s="47"/>
       <c r="F25" s="56"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-    </row>
-    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G25" s="98"/>
+      <c r="H25" s="98"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="56"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="91"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="56"/>
       <c r="E26" s="47"/>
       <c r="F26" s="56"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="98"/>
+      <c r="H26" s="98"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="56"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="91"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="56"/>
       <c r="E27" s="47"/>
       <c r="F27" s="56"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G27" s="98"/>
+      <c r="H27" s="98"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="56"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="91"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="56"/>
       <c r="E28" s="47"/>
       <c r="F28" s="56"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-    </row>
-    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+    </row>
+    <row r="29" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="56"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="91"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="101"/>
       <c r="D29" s="56"/>
       <c r="E29" s="47"/>
       <c r="F29" s="56"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-    </row>
-    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="98"/>
+      <c r="H29" s="98"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="91"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="56"/>
       <c r="E30" s="47"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="93"/>
-    </row>
-    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="98"/>
+      <c r="H30" s="98"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="56"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="91"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="56"/>
       <c r="E31" s="47"/>
       <c r="F31" s="56"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="98"/>
+      <c r="H31" s="98"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="56"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="91"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="56"/>
       <c r="E32" s="47"/>
       <c r="F32" s="56"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="56"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="91"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="56"/>
       <c r="E33" s="47"/>
       <c r="F33" s="56"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="56"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="91"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="56"/>
       <c r="E34" s="47"/>
       <c r="F34" s="56"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="56"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="91"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="56"/>
       <c r="E35" s="47"/>
       <c r="F35" s="56"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="67">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A4:H4"/>
@@ -7486,12 +7460,51 @@
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7508,69 +7521,69 @@
       <selection pane="bottomLeft" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.5546875" style="41" customWidth="1"/>
-    <col min="2" max="3" width="16.44140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="41"/>
-    <col min="5" max="5" width="16.44140625" style="41" customWidth="1"/>
-    <col min="6" max="6" width="26.21875" style="41" customWidth="1"/>
-    <col min="7" max="10" width="11.44140625" style="41"/>
-    <col min="11" max="11" width="3.44140625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="24.77734375" style="45" customWidth="1"/>
-    <col min="13" max="13" width="33.77734375" style="45" customWidth="1"/>
-    <col min="14" max="16384" width="11.44140625" style="41"/>
+    <col min="1" max="1" width="38.5703125" style="41" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" style="41" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="41"/>
+    <col min="5" max="5" width="16.42578125" style="41" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="41" customWidth="1"/>
+    <col min="7" max="10" width="11.42578125" style="41"/>
+    <col min="11" max="11" width="3.42578125" style="41" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" style="45" customWidth="1"/>
+    <col min="13" max="13" width="33.7109375" style="45" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93"/>
-      <c r="B1" s="138" t="s">
+    <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="98"/>
+      <c r="B1" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="140"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144"/>
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="145"/>
       <c r="M1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="93"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
-      <c r="J2" s="142"/>
-      <c r="K2" s="142"/>
-      <c r="L2" s="143"/>
+    <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="98"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+      <c r="I2" s="147"/>
+      <c r="J2" s="147"/>
+      <c r="K2" s="147"/>
+      <c r="L2" s="148"/>
       <c r="M2" s="44" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="137" t="s">
+    <row r="4" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="142"/>
+      <c r="D4" s="142"/>
+      <c r="E4" s="142"/>
+      <c r="F4" s="142"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="142"/>
+      <c r="J4" s="142"/>
       <c r="L4" s="50" t="s">
         <v>48</v>
       </c>
@@ -7578,209 +7591,209 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="128"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="130"/>
+    <row r="5" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="135"/>
       <c r="L5" s="49"/>
       <c r="M5" s="49" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131"/>
-      <c r="B6" s="132"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="132"/>
-      <c r="G6" s="132"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="133"/>
+    <row r="6" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="136"/>
+      <c r="B6" s="137"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="138"/>
       <c r="L6" s="49"/>
       <c r="M6" s="49" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="131"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="132"/>
-      <c r="J7" s="133"/>
+    <row r="7" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="136"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="138"/>
       <c r="L7" s="49"/>
       <c r="M7" s="49" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="131"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="132"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="132"/>
-      <c r="G8" s="132"/>
-      <c r="H8" s="132"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="133"/>
+    <row r="8" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="136"/>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138"/>
       <c r="L8" s="49"/>
       <c r="M8" s="49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="131"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="132"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="132"/>
-      <c r="H9" s="132"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="133"/>
+    <row r="9" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="138"/>
       <c r="L9" s="49"/>
       <c r="M9" s="49" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="131"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="133"/>
+    <row r="10" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="138"/>
       <c r="L10" s="49"/>
       <c r="M10" s="49" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="131"/>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="133"/>
+    <row r="11" spans="1:13" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="136"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="138"/>
       <c r="L11" s="49"/>
       <c r="M11" s="49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="131"/>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
+    <row r="12" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="136"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="138"/>
       <c r="L12" s="49"/>
       <c r="M12" s="49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="131"/>
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
+    <row r="13" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="136"/>
+      <c r="B13" s="137"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
       <c r="L13" s="49"/>
       <c r="M13" s="49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="131"/>
-      <c r="B14" s="132"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="133"/>
+    <row r="14" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="136"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="138"/>
       <c r="L14" s="49"/>
       <c r="M14" s="49" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="131"/>
-      <c r="B15" s="132"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="132"/>
-      <c r="H15" s="132"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="133"/>
+    <row r="15" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="138"/>
       <c r="L15" s="49"/>
       <c r="M15" s="49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="131"/>
-      <c r="B16" s="132"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="132"/>
-      <c r="H16" s="132"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="133"/>
+    <row r="16" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="136"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="138"/>
       <c r="L16" s="49"/>
       <c r="M16" s="49" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="134"/>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="136"/>
+    <row r="17" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="139"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="140"/>
+      <c r="F17" s="140"/>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+      <c r="I17" s="140"/>
+      <c r="J17" s="141"/>
       <c r="L17" s="49"/>
       <c r="M17" s="49" t="s">
         <v>62</v>
@@ -7805,98 +7818,98 @@
   <dimension ref="A1:P70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A48" sqref="A48:O48"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28.77734375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="28.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" style="45" customWidth="1"/>
-    <col min="3" max="3" width="57.44140625" style="45" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="57.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="45" customWidth="1"/>
     <col min="5" max="5" width="13" style="45" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="45" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="45" customWidth="1"/>
-    <col min="8" max="9" width="19.77734375" style="45" customWidth="1"/>
-    <col min="10" max="10" width="31.77734375" style="45" customWidth="1"/>
-    <col min="11" max="11" width="32.44140625" style="45" customWidth="1"/>
-    <col min="12" max="12" width="28.77734375" style="45"/>
-    <col min="13" max="13" width="28.77734375" style="45" customWidth="1"/>
-    <col min="14" max="14" width="28.77734375" style="45"/>
-    <col min="15" max="15" width="37.5546875" style="45" customWidth="1"/>
-    <col min="16" max="16" width="91.77734375" style="45" customWidth="1"/>
-    <col min="17" max="16384" width="28.77734375" style="45"/>
+    <col min="6" max="6" width="14.28515625" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="45" customWidth="1"/>
+    <col min="8" max="9" width="19.7109375" style="45" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" style="45" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="28.7109375" style="45"/>
+    <col min="13" max="13" width="28.7109375" style="45" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" style="45"/>
+    <col min="15" max="15" width="37.5703125" style="45" customWidth="1"/>
+    <col min="16" max="16" width="91.7109375" style="45" customWidth="1"/>
+    <col min="17" max="16384" width="28.7109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="144"/>
-      <c r="B1" s="145"/>
-      <c r="C1" s="114" t="s">
+    <row r="1" spans="1:16" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="155"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="44" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
+    <row r="2" spans="1:16" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="157"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="44" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="148" t="s">
+    <row r="3" spans="1:16" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="149"/>
-      <c r="I4" s="149"/>
-      <c r="J4" s="149"/>
-      <c r="K4" s="149"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="149"/>
-      <c r="N4" s="149"/>
-      <c r="O4" s="149"/>
-    </row>
-    <row r="5" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="160"/>
+      <c r="C4" s="160"/>
+      <c r="D4" s="160"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+    </row>
+    <row r="5" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="150" t="s">
+      <c r="B5" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="151"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="46" t="s">
         <v>66</v>
       </c>
@@ -7937,34 +7950,34 @@
         <v>596</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152" t="s">
+    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="152"/>
-      <c r="O6" s="152"/>
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
       <c r="P6" s="80"/>
     </row>
-    <row r="7" spans="1:16" s="65" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="65" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="99" t="s">
         <v>518</v>
       </c>
-      <c r="C7" s="91"/>
+      <c r="C7" s="101"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
       <c r="F7" s="61" t="s">
@@ -7996,14 +8009,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="99" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="91"/>
+      <c r="C8" s="101"/>
       <c r="D8" s="62" t="s">
         <v>290</v>
       </c>
@@ -8041,14 +8054,14 @@
         <v>310</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="C9" s="91"/>
+      <c r="C9" s="101"/>
       <c r="D9" s="62" t="s">
         <v>297</v>
       </c>
@@ -8084,14 +8097,14 @@
         <v>311</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="180" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="171" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="C10" s="91"/>
+      <c r="C10" s="101"/>
       <c r="D10" s="56" t="s">
         <v>304</v>
       </c>
@@ -8127,14 +8140,14 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="180" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B11" s="89" t="s">
+      <c r="B11" s="99" t="s">
         <v>313</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="101"/>
       <c r="D11" s="56" t="s">
         <v>314</v>
       </c>
@@ -8170,14 +8183,14 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="180" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="171" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B12" s="89" t="s">
+      <c r="B12" s="99" t="s">
         <v>322</v>
       </c>
-      <c r="C12" s="91"/>
+      <c r="C12" s="101"/>
       <c r="D12" s="56" t="s">
         <v>323</v>
       </c>
@@ -8213,14 +8226,14 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="195" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A13" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="99" t="s">
         <v>333</v>
       </c>
-      <c r="C13" s="91"/>
+      <c r="C13" s="101"/>
       <c r="D13" s="56" t="s">
         <v>334</v>
       </c>
@@ -8256,14 +8269,14 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="165" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B14" s="89" t="s">
+      <c r="B14" s="99" t="s">
         <v>340</v>
       </c>
-      <c r="C14" s="91"/>
+      <c r="C14" s="101"/>
       <c r="D14" s="56" t="s">
         <v>341</v>
       </c>
@@ -8299,14 +8312,14 @@
         <v>346</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="180" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="171" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B15" s="89" t="s">
+      <c r="B15" s="99" t="s">
         <v>608</v>
       </c>
-      <c r="C15" s="91"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="56" t="s">
         <v>347</v>
       </c>
@@ -8342,14 +8355,14 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="158.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="158.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="99" t="s">
         <v>351</v>
       </c>
-      <c r="C16" s="91"/>
+      <c r="C16" s="101"/>
       <c r="D16" s="56" t="s">
         <v>352</v>
       </c>
@@ -8385,14 +8398,14 @@
         <v>339</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="165" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="99" t="s">
         <v>354</v>
       </c>
-      <c r="C17" s="91"/>
+      <c r="C17" s="101"/>
       <c r="D17" s="56" t="s">
         <v>357</v>
       </c>
@@ -8428,14 +8441,14 @@
         <v>378</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="150" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="99" t="s">
         <v>361</v>
       </c>
-      <c r="C18" s="91"/>
+      <c r="C18" s="101"/>
       <c r="D18" s="62" t="s">
         <v>362</v>
       </c>
@@ -8471,14 +8484,14 @@
         <v>379</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="180" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B19" s="89" t="s">
+      <c r="B19" s="99" t="s">
         <v>367</v>
       </c>
-      <c r="C19" s="91"/>
+      <c r="C19" s="101"/>
       <c r="D19" s="56" t="s">
         <v>368</v>
       </c>
@@ -8514,14 +8527,14 @@
         <v>380</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="135" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A20" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B20" s="89" t="s">
+      <c r="B20" s="99" t="s">
         <v>381</v>
       </c>
-      <c r="C20" s="91"/>
+      <c r="C20" s="101"/>
       <c r="D20" s="56" t="s">
         <v>382</v>
       </c>
@@ -8557,14 +8570,14 @@
         <v>389</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="105" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="99" t="s">
         <v>390</v>
       </c>
-      <c r="C21" s="91"/>
+      <c r="C21" s="101"/>
       <c r="D21" s="56" t="s">
         <v>391</v>
       </c>
@@ -8600,14 +8613,14 @@
         <v>570</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="120" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="114" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>609</v>
       </c>
-      <c r="B22" s="89" t="s">
+      <c r="B22" s="99" t="s">
         <v>405</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="101"/>
       <c r="D22" s="56" t="s">
         <v>406</v>
       </c>
@@ -8643,14 +8656,14 @@
         <v>533</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="88" customFormat="1" ht="195" x14ac:dyDescent="0.3">
-      <c r="A23" s="157" t="s">
+    <row r="23" spans="1:16" s="88" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="89" t="s">
         <v>610</v>
       </c>
-      <c r="B23" s="89" t="s">
+      <c r="B23" s="99" t="s">
         <v>523</v>
       </c>
-      <c r="C23" s="91"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="75" t="s">
@@ -8682,14 +8695,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="158" t="s">
+    <row r="24" spans="1:16" ht="399" x14ac:dyDescent="0.25">
+      <c r="A24" s="90" t="s">
         <v>611</v>
       </c>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="99" t="s">
         <v>409</v>
       </c>
-      <c r="C24" s="91"/>
+      <c r="C24" s="101"/>
       <c r="D24" s="62" t="s">
         <v>408</v>
       </c>
@@ -8723,14 +8736,14 @@
         <v>533</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="150" x14ac:dyDescent="0.3">
-      <c r="A25" s="158" t="s">
+    <row r="25" spans="1:16" ht="142.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="90" t="s">
         <v>611</v>
       </c>
-      <c r="B25" s="89" t="s">
+      <c r="B25" s="99" t="s">
         <v>413</v>
       </c>
-      <c r="C25" s="91"/>
+      <c r="C25" s="101"/>
       <c r="D25" s="56" t="s">
         <v>414</v>
       </c>
@@ -8764,14 +8777,14 @@
         <v>533</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="105" x14ac:dyDescent="0.3">
-      <c r="A26" s="158" t="s">
+    <row r="26" spans="1:16" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="90" t="s">
         <v>611</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="99" t="s">
         <v>416</v>
       </c>
-      <c r="C26" s="91"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="56" t="s">
         <v>417</v>
       </c>
@@ -8803,14 +8816,14 @@
         <v>533</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="77" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158" t="s">
+    <row r="27" spans="1:16" s="77" customFormat="1" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="90" t="s">
         <v>611</v>
       </c>
-      <c r="B27" s="89" t="s">
+      <c r="B27" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="C27" s="91"/>
+      <c r="C27" s="101"/>
       <c r="D27" s="76" t="s">
         <v>529</v>
       </c>
@@ -8844,14 +8857,14 @@
         <v>533</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="150" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>611</v>
       </c>
-      <c r="B28" s="89" t="s">
+      <c r="B28" s="99" t="s">
         <v>528</v>
       </c>
-      <c r="C28" s="91"/>
+      <c r="C28" s="101"/>
       <c r="D28" s="56" t="s">
         <v>581</v>
       </c>
@@ -8866,13 +8879,13 @@
         <v>337</v>
       </c>
       <c r="I28" s="56"/>
-      <c r="J28" s="68" t="s">
+      <c r="J28" s="166" t="s">
         <v>531</v>
       </c>
-      <c r="K28" s="73" t="s">
+      <c r="K28" s="167" t="s">
         <v>582</v>
       </c>
-      <c r="L28" s="61" t="s">
+      <c r="L28" s="168" t="s">
         <v>344</v>
       </c>
       <c r="M28" s="76">
@@ -8885,34 +8898,34 @@
         <v>533</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="152" t="s">
+    <row r="29" spans="1:16" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="149" t="s">
         <v>650</v>
       </c>
-      <c r="B29" s="152"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="152"/>
-      <c r="K29" s="152"/>
-      <c r="L29" s="152"/>
-      <c r="M29" s="152"/>
-      <c r="N29" s="152"/>
-      <c r="O29" s="152"/>
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
       <c r="P29" s="80"/>
     </row>
-    <row r="30" spans="1:16" s="63" customFormat="1" ht="330" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" s="63" customFormat="1" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A30" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B30" s="89" t="s">
+      <c r="B30" s="99" t="s">
         <v>423</v>
       </c>
-      <c r="C30" s="91"/>
+      <c r="C30" s="101"/>
       <c r="D30" s="62" t="s">
         <v>424</v>
       </c>
@@ -8950,14 +8963,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" s="63" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A31" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B31" s="89" t="s">
+      <c r="B31" s="99" t="s">
         <v>428</v>
       </c>
-      <c r="C31" s="91"/>
+      <c r="C31" s="101"/>
       <c r="D31" s="62" t="s">
         <v>304</v>
       </c>
@@ -8990,14 +9003,14 @@
         <v>435</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="63" customFormat="1" ht="195" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" s="63" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B32" s="89" t="s">
+      <c r="B32" s="99" t="s">
         <v>437</v>
       </c>
-      <c r="C32" s="91"/>
+      <c r="C32" s="101"/>
       <c r="D32" s="62" t="s">
         <v>436</v>
       </c>
@@ -9033,14 +9046,14 @@
         <v>587</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="63" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" s="63" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B33" s="89" t="s">
+      <c r="B33" s="99" t="s">
         <v>443</v>
       </c>
-      <c r="C33" s="91"/>
+      <c r="C33" s="101"/>
       <c r="D33" s="62" t="s">
         <v>444</v>
       </c>
@@ -9076,14 +9089,14 @@
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="63" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" s="63" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="99" t="s">
         <v>446</v>
       </c>
-      <c r="C34" s="91"/>
+      <c r="C34" s="101"/>
       <c r="D34" s="62" t="s">
         <v>447</v>
       </c>
@@ -9119,14 +9132,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="63" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" s="63" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="99" t="s">
         <v>455</v>
       </c>
-      <c r="C35" s="91"/>
+      <c r="C35" s="101"/>
       <c r="D35" s="62" t="s">
         <v>456</v>
       </c>
@@ -9162,14 +9175,14 @@
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="63" customFormat="1" ht="120" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" s="63" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="99" t="s">
         <v>460</v>
       </c>
-      <c r="C36" s="91"/>
+      <c r="C36" s="101"/>
       <c r="D36" s="64" t="s">
         <v>461</v>
       </c>
@@ -9205,14 +9218,14 @@
         <v>435</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="63" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" s="63" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B37" s="159" t="s">
+      <c r="B37" s="151" t="s">
         <v>468</v>
       </c>
-      <c r="C37" s="160"/>
+      <c r="C37" s="152"/>
       <c r="D37" s="64" t="s">
         <v>464</v>
       </c>
@@ -9248,14 +9261,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="63" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" s="63" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A38" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B38" s="159" t="s">
+      <c r="B38" s="151" t="s">
         <v>474</v>
       </c>
-      <c r="C38" s="160"/>
+      <c r="C38" s="152"/>
       <c r="D38" s="64" t="s">
         <v>469</v>
       </c>
@@ -9291,14 +9304,14 @@
         <v>435</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="63" customFormat="1" ht="75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" s="63" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B39" s="159" t="s">
+      <c r="B39" s="151" t="s">
         <v>472</v>
       </c>
-      <c r="C39" s="160"/>
+      <c r="C39" s="152"/>
       <c r="D39" s="64" t="s">
         <v>470</v>
       </c>
@@ -9334,14 +9347,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="63" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" s="63" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B40" s="159" t="s">
+      <c r="B40" s="151" t="s">
         <v>473</v>
       </c>
-      <c r="C40" s="160"/>
+      <c r="C40" s="152"/>
       <c r="D40" s="64" t="s">
         <v>471</v>
       </c>
@@ -9377,14 +9390,14 @@
         <v>435</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="63" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" s="63" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B41" s="159" t="s">
+      <c r="B41" s="151" t="s">
         <v>482</v>
       </c>
-      <c r="C41" s="160"/>
+      <c r="C41" s="152"/>
       <c r="D41" s="64" t="s">
         <v>483</v>
       </c>
@@ -9420,14 +9433,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="63" customFormat="1" ht="120" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" s="63" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B42" s="159" t="s">
+      <c r="B42" s="151" t="s">
         <v>490</v>
       </c>
-      <c r="C42" s="160"/>
+      <c r="C42" s="152"/>
       <c r="D42" s="64" t="s">
         <v>484</v>
       </c>
@@ -9463,14 +9476,14 @@
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="63" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" s="63" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B43" s="89" t="s">
+      <c r="B43" s="99" t="s">
         <v>496</v>
       </c>
-      <c r="C43" s="91"/>
+      <c r="C43" s="101"/>
       <c r="D43" s="64" t="s">
         <v>497</v>
       </c>
@@ -9504,14 +9517,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="63" customFormat="1" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" s="63" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="99" t="s">
         <v>503</v>
       </c>
-      <c r="C44" s="91"/>
+      <c r="C44" s="101"/>
       <c r="D44" s="64" t="s">
         <v>504</v>
       </c>
@@ -9547,14 +9560,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="63" customFormat="1" ht="180" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" s="63" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B45" s="89" t="s">
+      <c r="B45" s="99" t="s">
         <v>508</v>
       </c>
-      <c r="C45" s="91"/>
+      <c r="C45" s="101"/>
       <c r="D45" s="64" t="s">
         <v>509</v>
       </c>
@@ -9590,14 +9603,14 @@
         <v>435</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="88" customFormat="1" ht="60" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" s="88" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A46" s="61" t="s">
         <v>651</v>
       </c>
-      <c r="B46" s="89" t="s">
+      <c r="B46" s="99" t="s">
         <v>615</v>
       </c>
-      <c r="C46" s="91"/>
+      <c r="C46" s="101"/>
       <c r="D46" s="87"/>
       <c r="E46" s="87"/>
       <c r="F46" s="87"/>
@@ -9615,59 +9628,59 @@
       <c r="N46" s="75"/>
       <c r="O46" s="87"/>
     </row>
-    <row r="47" spans="1:16" s="63" customFormat="1" ht="150" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" s="63" customFormat="1" ht="142.5" x14ac:dyDescent="0.25">
       <c r="A47" s="86" t="s">
         <v>651</v>
       </c>
-      <c r="B47" s="162" t="s">
+      <c r="B47" s="153" t="s">
         <v>613</v>
       </c>
-      <c r="C47" s="163"/>
-      <c r="D47" s="161"/>
-      <c r="E47" s="161"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161" t="s">
+      <c r="C47" s="154"/>
+      <c r="D47" s="91"/>
+      <c r="E47" s="91"/>
+      <c r="F47" s="91"/>
+      <c r="G47" s="91" t="s">
         <v>614</v>
       </c>
-      <c r="H47" s="161"/>
-      <c r="I47" s="164" t="s">
+      <c r="H47" s="91"/>
+      <c r="I47" s="92" t="s">
         <v>618</v>
       </c>
-      <c r="J47" s="161"/>
-      <c r="K47" s="161"/>
-      <c r="L47" s="161"/>
-      <c r="M47" s="161"/>
-      <c r="N47" s="161"/>
-      <c r="O47" s="161"/>
-    </row>
-    <row r="48" spans="1:16" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="152" t="s">
+      <c r="J47" s="91"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="91"/>
+      <c r="M47" s="91"/>
+      <c r="N47" s="91"/>
+      <c r="O47" s="91"/>
+    </row>
+    <row r="48" spans="1:16" s="88" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="149" t="s">
         <v>652</v>
       </c>
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="152"/>
-      <c r="O48" s="153"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="149"/>
+      <c r="D48" s="149"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="149"/>
+      <c r="K48" s="149"/>
+      <c r="L48" s="149"/>
+      <c r="M48" s="149"/>
+      <c r="N48" s="149"/>
+      <c r="O48" s="150"/>
       <c r="P48" s="80"/>
     </row>
-    <row r="49" spans="1:15" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="88" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A49" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="B49" s="89" t="s">
+      <c r="B49" s="99" t="s">
         <v>620</v>
       </c>
-      <c r="C49" s="91"/>
+      <c r="C49" s="101"/>
       <c r="D49" s="87">
         <v>1</v>
       </c>
@@ -9701,14 +9714,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="88" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" s="88" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A50" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="99" t="s">
         <v>621</v>
       </c>
-      <c r="C50" s="91"/>
+      <c r="C50" s="101"/>
       <c r="D50" s="87">
         <v>2</v>
       </c>
@@ -9722,7 +9735,7 @@
       <c r="H50" s="87" t="s">
         <v>635</v>
       </c>
-      <c r="I50" s="165" t="s">
+      <c r="I50" s="93" t="s">
         <v>646</v>
       </c>
       <c r="J50" s="68" t="s">
@@ -9742,14 +9755,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:15" s="88" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="B51" s="89" t="s">
+      <c r="B51" s="99" t="s">
         <v>622</v>
       </c>
-      <c r="C51" s="91"/>
+      <c r="C51" s="101"/>
       <c r="D51" s="87" t="s">
         <v>639</v>
       </c>
@@ -9783,14 +9796,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="88" customFormat="1" ht="90" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" s="88" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="B52" s="89" t="s">
+      <c r="B52" s="99" t="s">
         <v>623</v>
       </c>
-      <c r="C52" s="91"/>
+      <c r="C52" s="101"/>
       <c r="D52" s="87">
         <v>3</v>
       </c>
@@ -9804,7 +9817,7 @@
       <c r="H52" s="87" t="s">
         <v>637</v>
       </c>
-      <c r="I52" s="165" t="s">
+      <c r="I52" s="93" t="s">
         <v>648</v>
       </c>
       <c r="J52" s="72" t="s">
@@ -9824,14 +9837,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" s="88" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="B53" s="89" t="s">
+      <c r="B53" s="99" t="s">
         <v>624</v>
       </c>
-      <c r="C53" s="91"/>
+      <c r="C53" s="101"/>
       <c r="D53" s="87">
         <v>4</v>
       </c>
@@ -9861,14 +9874,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="88" customFormat="1" ht="30" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" s="88" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="B54" s="89" t="s">
+      <c r="B54" s="99" t="s">
         <v>625</v>
       </c>
-      <c r="C54" s="91"/>
+      <c r="C54" s="101"/>
       <c r="D54" s="87">
         <v>5</v>
       </c>
@@ -9898,14 +9911,14 @@
         <v>398</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="88" customFormat="1" ht="45" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" s="88" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>619</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="99" t="s">
         <v>628</v>
       </c>
-      <c r="C55" s="91"/>
+      <c r="C55" s="101"/>
       <c r="D55" s="87"/>
       <c r="E55" s="87"/>
       <c r="F55" s="87"/>
@@ -9923,10 +9936,10 @@
       <c r="N55" s="87"/>
       <c r="O55" s="87"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="14.25" x14ac:dyDescent="0.25">
       <c r="A56" s="56"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="91"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="56"/>
       <c r="E56" s="56"/>
       <c r="F56" s="56"/>
@@ -9940,10 +9953,10 @@
       <c r="N56" s="56"/>
       <c r="O56" s="56"/>
     </row>
-    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="56"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="91"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="101"/>
       <c r="D57" s="56"/>
       <c r="E57" s="56"/>
       <c r="F57" s="56"/>
@@ -9957,10 +9970,10 @@
       <c r="N57" s="56"/>
       <c r="O57" s="56"/>
     </row>
-    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="56"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="91"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="101"/>
       <c r="D58" s="56"/>
       <c r="E58" s="56"/>
       <c r="F58" s="56"/>
@@ -9974,10 +9987,10 @@
       <c r="N58" s="56"/>
       <c r="O58" s="56"/>
     </row>
-    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="56"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="91"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="101"/>
       <c r="D59" s="56"/>
       <c r="E59" s="56"/>
       <c r="F59" s="56"/>
@@ -9991,10 +10004,10 @@
       <c r="N59" s="56"/>
       <c r="O59" s="56"/>
     </row>
-    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="56"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="91"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="101"/>
       <c r="D60" s="56"/>
       <c r="E60" s="56"/>
       <c r="F60" s="56"/>
@@ -10008,10 +10021,10 @@
       <c r="N60" s="56"/>
       <c r="O60" s="56"/>
     </row>
-    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="56"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="91"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="101"/>
       <c r="D61" s="56"/>
       <c r="E61" s="56"/>
       <c r="F61" s="56"/>
@@ -10025,10 +10038,10 @@
       <c r="N61" s="56"/>
       <c r="O61" s="56"/>
     </row>
-    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="56"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="91"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="101"/>
       <c r="D62" s="56"/>
       <c r="E62" s="56"/>
       <c r="F62" s="56"/>
@@ -10042,10 +10055,10 @@
       <c r="N62" s="56"/>
       <c r="O62" s="56"/>
     </row>
-    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="56"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="91"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="101"/>
       <c r="D63" s="56"/>
       <c r="E63" s="56"/>
       <c r="F63" s="56"/>
@@ -10059,10 +10072,10 @@
       <c r="N63" s="56"/>
       <c r="O63" s="56"/>
     </row>
-    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="56"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="91"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="101"/>
       <c r="D64" s="56"/>
       <c r="E64" s="56"/>
       <c r="F64" s="56"/>
@@ -10076,10 +10089,10 @@
       <c r="N64" s="56"/>
       <c r="O64" s="56"/>
     </row>
-    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="56"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="91"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="101"/>
       <c r="D65" s="56"/>
       <c r="E65" s="56"/>
       <c r="F65" s="56"/>
@@ -10093,10 +10106,10 @@
       <c r="N65" s="56"/>
       <c r="O65" s="56"/>
     </row>
-    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="56"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="91"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="101"/>
       <c r="D66" s="56"/>
       <c r="E66" s="56"/>
       <c r="F66" s="56"/>
@@ -10110,10 +10123,10 @@
       <c r="N66" s="56"/>
       <c r="O66" s="56"/>
     </row>
-    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="56"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="91"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="101"/>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
       <c r="F67" s="56"/>
@@ -10127,10 +10140,10 @@
       <c r="N67" s="56"/>
       <c r="O67" s="56"/>
     </row>
-    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="56"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="91"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="101"/>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
       <c r="F68" s="56"/>
@@ -10144,10 +10157,10 @@
       <c r="N68" s="56"/>
       <c r="O68" s="56"/>
     </row>
-    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="56"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="91"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="101"/>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
       <c r="F69" s="56"/>
@@ -10161,10 +10174,10 @@
       <c r="N69" s="56"/>
       <c r="O69" s="56"/>
     </row>
-    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="56"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="91"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="101"/>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
       <c r="F70" s="56"/>
@@ -10180,6 +10193,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="C1:N2"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:O6"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A29:O29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B50:C50"/>
@@ -10196,59 +10262,6 @@
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="B34:C34"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="C1:N2"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:O6"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -10266,17 +10279,17 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33.77734375" customWidth="1"/>
-    <col min="3" max="6" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="6" width="11.42578125" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="16.77734375" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" customWidth="1"/>
-    <col min="10" max="10" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="39" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>64</v>
       </c>
@@ -10312,7 +10325,7 @@
       </c>
       <c r="L1" s="38"/>
     </row>
-    <row r="2" spans="1:12" ht="144" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="168" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>83</v>
@@ -10334,7 +10347,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>86</v>
@@ -10350,7 +10363,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -10364,7 +10377,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -10378,7 +10391,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="32"/>
       <c r="C6" s="7"/>
@@ -10409,36 +10422,36 @@
       <selection pane="bottomRight" sqref="A1:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45" customWidth="1"/>
-    <col min="3" max="5" width="12.21875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="7.77734375" style="16" customWidth="1"/>
-    <col min="7" max="9" width="7.77734375" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" customWidth="1"/>
+    <col min="3" max="5" width="12.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="16" customWidth="1"/>
+    <col min="7" max="9" width="7.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="154" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C1" s="164"/>
+      <c r="D1" s="164"/>
+      <c r="E1" s="164"/>
+      <c r="F1" s="164"/>
+      <c r="G1" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="154" t="s">
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-      <c r="N1" s="154"/>
-    </row>
-    <row r="2" spans="1:15" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+      <c r="N1" s="163"/>
+    </row>
+    <row r="2" spans="1:15" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>89</v>
@@ -10481,7 +10494,7 @@
       </c>
       <c r="O2" s="15"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>101</v>
       </c>
@@ -10499,7 +10512,7 @@
       <c r="M3" s="22"/>
       <c r="N3" s="22"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>102</v>
       </c>
@@ -10525,7 +10538,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="22"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>102</v>
       </c>
@@ -10551,7 +10564,7 @@
       <c r="M5" s="22"/>
       <c r="N5" s="22"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>102</v>
       </c>
@@ -10577,7 +10590,7 @@
       <c r="M6" s="22"/>
       <c r="N6" s="22"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>102</v>
       </c>
@@ -10603,7 +10616,7 @@
       <c r="M7" s="22"/>
       <c r="N7" s="22"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
@@ -10629,7 +10642,7 @@
       <c r="M8" s="22"/>
       <c r="N8" s="22"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>102</v>
       </c>
@@ -10655,7 +10668,7 @@
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>102</v>
       </c>
@@ -10681,7 +10694,7 @@
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>102</v>
       </c>
@@ -10707,7 +10720,7 @@
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>102</v>
       </c>
@@ -10733,7 +10746,7 @@
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>102</v>
       </c>
@@ -10759,7 +10772,7 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
     </row>
-    <row r="14" spans="1:15" ht="24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="24" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>102</v>
       </c>
@@ -10785,7 +10798,7 @@
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>115</v>
       </c>
@@ -10803,7 +10816,7 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>116</v>
       </c>
@@ -10829,7 +10842,7 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>116</v>
       </c>
@@ -10855,7 +10868,7 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>116</v>
       </c>
@@ -10877,7 +10890,7 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
     </row>
-    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>116</v>
       </c>
@@ -10903,7 +10916,7 @@
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>116</v>
       </c>
@@ -10929,7 +10942,7 @@
       <c r="M20" s="22"/>
       <c r="N20" s="22"/>
     </row>
-    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>116</v>
       </c>
@@ -10955,7 +10968,7 @@
       <c r="M21" s="22"/>
       <c r="N21" s="22"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>116</v>
       </c>
@@ -10981,7 +10994,7 @@
       <c r="M22" s="22"/>
       <c r="N22" s="22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>116</v>
       </c>
@@ -11007,7 +11020,7 @@
       <c r="M23" s="22"/>
       <c r="N23" s="22"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
@@ -11033,7 +11046,7 @@
       <c r="M24" s="22"/>
       <c r="N24" s="22"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>116</v>
       </c>
@@ -11059,7 +11072,7 @@
       <c r="M25" s="22"/>
       <c r="N25" s="22"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>116</v>
       </c>
@@ -11085,7 +11098,7 @@
       <c r="M26" s="22"/>
       <c r="N26" s="22"/>
     </row>
-    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>116</v>
       </c>
@@ -11111,7 +11124,7 @@
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>116</v>
       </c>
@@ -11137,7 +11150,7 @@
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
     </row>
-    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>116</v>
       </c>
@@ -11163,7 +11176,7 @@
       <c r="M29" s="22"/>
       <c r="N29" s="22"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>116</v>
       </c>
@@ -11185,7 +11198,7 @@
       <c r="M30" s="22"/>
       <c r="N30" s="22"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>116</v>
       </c>
@@ -11211,7 +11224,7 @@
       <c r="M31" s="22"/>
       <c r="N31" s="22"/>
     </row>
-    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>116</v>
       </c>
@@ -11235,7 +11248,7 @@
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
     </row>
-    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>116</v>
       </c>
@@ -11257,7 +11270,7 @@
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
     </row>
-    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>116</v>
       </c>
@@ -11279,7 +11292,7 @@
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>116</v>
       </c>
@@ -11305,7 +11318,7 @@
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>116</v>
       </c>
@@ -11331,7 +11344,7 @@
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>116</v>
       </c>
@@ -11353,7 +11366,7 @@
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
     </row>
-    <row r="38" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>116</v>
       </c>
@@ -11375,7 +11388,7 @@
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>116</v>
       </c>
@@ -11399,7 +11412,7 @@
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
         <v>142</v>
       </c>
@@ -11417,7 +11430,7 @@
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
     </row>
-    <row r="41" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>143</v>
       </c>
@@ -11443,7 +11456,7 @@
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>143</v>
       </c>
@@ -11465,7 +11478,7 @@
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>143</v>
       </c>
@@ -11487,7 +11500,7 @@
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
     </row>
-    <row r="44" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>143</v>
       </c>
@@ -11509,7 +11522,7 @@
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
     </row>
-    <row r="45" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>143</v>
       </c>
@@ -11531,7 +11544,7 @@
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
     </row>
-    <row r="46" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>143</v>
       </c>
@@ -11553,7 +11566,7 @@
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>143</v>
       </c>
@@ -11575,7 +11588,7 @@
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>143</v>
       </c>
@@ -11597,7 +11610,7 @@
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
     </row>
-    <row r="49" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>143</v>
       </c>
@@ -11619,7 +11632,7 @@
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
     </row>
-    <row r="50" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>143</v>
       </c>
@@ -11643,7 +11656,7 @@
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
     </row>
-    <row r="51" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>143</v>
       </c>
@@ -11665,7 +11678,7 @@
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>143</v>
       </c>
@@ -11689,7 +11702,7 @@
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>143</v>
       </c>
@@ -11713,7 +11726,7 @@
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>143</v>
       </c>
@@ -11737,7 +11750,7 @@
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>143</v>
       </c>
@@ -11761,7 +11774,7 @@
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>143</v>
       </c>
@@ -11787,7 +11800,7 @@
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
         <v>160</v>
       </c>
@@ -11805,7 +11818,7 @@
       <c r="M57" s="22"/>
       <c r="N57" s="22"/>
     </row>
-    <row r="58" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>161</v>
       </c>
@@ -11831,7 +11844,7 @@
       <c r="M58" s="22"/>
       <c r="N58" s="22"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>161</v>
       </c>
@@ -11857,7 +11870,7 @@
       <c r="M59" s="22"/>
       <c r="N59" s="22"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>161</v>
       </c>
@@ -11883,7 +11896,7 @@
       <c r="M60" s="22"/>
       <c r="N60" s="22"/>
     </row>
-    <row r="61" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>161</v>
       </c>
@@ -11909,7 +11922,7 @@
       <c r="M61" s="22"/>
       <c r="N61" s="22"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>161</v>
       </c>
@@ -11935,7 +11948,7 @@
       <c r="M62" s="22"/>
       <c r="N62" s="22"/>
     </row>
-    <row r="63" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>161</v>
       </c>
@@ -11961,7 +11974,7 @@
       <c r="M63" s="22"/>
       <c r="N63" s="22"/>
     </row>
-    <row r="64" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>161</v>
       </c>
@@ -11987,7 +12000,7 @@
       <c r="M64" s="22"/>
       <c r="N64" s="22"/>
     </row>
-    <row r="65" spans="1:14" ht="60" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="72" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>161</v>
       </c>
@@ -12013,7 +12026,7 @@
       <c r="M65" s="22"/>
       <c r="N65" s="22"/>
     </row>
-    <row r="66" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>161</v>
       </c>
@@ -12039,7 +12052,7 @@
       <c r="M66" s="22"/>
       <c r="N66" s="22"/>
     </row>
-    <row r="67" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>161</v>
       </c>
@@ -12065,7 +12078,7 @@
       <c r="M67" s="22"/>
       <c r="N67" s="22"/>
     </row>
-    <row r="68" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>161</v>
       </c>
@@ -12091,7 +12104,7 @@
       <c r="M68" s="22"/>
       <c r="N68" s="22"/>
     </row>
-    <row r="69" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>161</v>
       </c>
@@ -12117,7 +12130,7 @@
       <c r="M69" s="22"/>
       <c r="N69" s="22"/>
     </row>
-    <row r="70" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>161</v>
       </c>
@@ -12143,7 +12156,7 @@
       <c r="M70" s="22"/>
       <c r="N70" s="22"/>
     </row>
-    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="72" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>161</v>
       </c>
@@ -12169,7 +12182,7 @@
       <c r="M71" s="22"/>
       <c r="N71" s="22"/>
     </row>
-    <row r="72" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>161</v>
       </c>
@@ -12195,7 +12208,7 @@
       <c r="M72" s="22"/>
       <c r="N72" s="22"/>
     </row>
-    <row r="73" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>161</v>
       </c>
@@ -12221,7 +12234,7 @@
       <c r="M73" s="22"/>
       <c r="N73" s="22"/>
     </row>
-    <row r="74" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>161</v>
       </c>
@@ -12247,7 +12260,7 @@
       <c r="M74" s="22"/>
       <c r="N74" s="22"/>
     </row>
-    <row r="75" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>161</v>
       </c>
@@ -12273,7 +12286,7 @@
       <c r="M75" s="22"/>
       <c r="N75" s="22"/>
     </row>
-    <row r="76" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>161</v>
       </c>
@@ -12299,7 +12312,7 @@
       <c r="M76" s="22"/>
       <c r="N76" s="22"/>
     </row>
-    <row r="77" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="84" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>161</v>
       </c>
@@ -12325,7 +12338,7 @@
       <c r="M77" s="22"/>
       <c r="N77" s="22"/>
     </row>
-    <row r="78" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>161</v>
       </c>
@@ -12351,7 +12364,7 @@
       <c r="M78" s="22"/>
       <c r="N78" s="22"/>
     </row>
-    <row r="79" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>161</v>
       </c>
@@ -12377,7 +12390,7 @@
       <c r="M79" s="22"/>
       <c r="N79" s="22"/>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>161</v>
       </c>
@@ -12403,7 +12416,7 @@
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>161</v>
       </c>
@@ -12429,7 +12442,7 @@
       <c r="M81" s="22"/>
       <c r="N81" s="22"/>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>161</v>
       </c>
@@ -12455,7 +12468,7 @@
       <c r="M82" s="22"/>
       <c r="N82" s="22"/>
     </row>
-    <row r="83" spans="1:14" ht="60" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>161</v>
       </c>
@@ -12481,7 +12494,7 @@
       <c r="M83" s="22"/>
       <c r="N83" s="22"/>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>161</v>
       </c>
@@ -12507,7 +12520,7 @@
       <c r="M84" s="22"/>
       <c r="N84" s="22"/>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>161</v>
       </c>
@@ -12533,7 +12546,7 @@
       <c r="M85" s="22"/>
       <c r="N85" s="22"/>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>161</v>
       </c>
@@ -12559,7 +12572,7 @@
       <c r="M86" s="22"/>
       <c r="N86" s="22"/>
     </row>
-    <row r="87" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>161</v>
       </c>
@@ -12585,7 +12598,7 @@
       <c r="M87" s="22"/>
       <c r="N87" s="22"/>
     </row>
-    <row r="88" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>161</v>
       </c>
@@ -12611,7 +12624,7 @@
       <c r="M88" s="22"/>
       <c r="N88" s="22"/>
     </row>
-    <row r="89" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>161</v>
       </c>
@@ -12637,7 +12650,7 @@
       <c r="M89" s="22"/>
       <c r="N89" s="22"/>
     </row>
-    <row r="90" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>161</v>
       </c>
@@ -12663,7 +12676,7 @@
       <c r="M90" s="22"/>
       <c r="N90" s="22"/>
     </row>
-    <row r="91" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>161</v>
       </c>
@@ -12689,7 +12702,7 @@
       <c r="M91" s="22"/>
       <c r="N91" s="22"/>
     </row>
-    <row r="92" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>161</v>
       </c>
@@ -12715,7 +12728,7 @@
       <c r="M92" s="22"/>
       <c r="N92" s="22"/>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
         <v>197</v>
       </c>
@@ -12733,7 +12746,7 @@
       <c r="M93" s="22"/>
       <c r="N93" s="22"/>
     </row>
-    <row r="94" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>198</v>
       </c>
@@ -12755,7 +12768,7 @@
       <c r="M94" s="22"/>
       <c r="N94" s="22"/>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>198</v>
       </c>
@@ -12777,7 +12790,7 @@
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
     </row>
-    <row r="96" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>198</v>
       </c>
@@ -12799,7 +12812,7 @@
       <c r="M96" s="22"/>
       <c r="N96" s="22"/>
     </row>
-    <row r="97" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>198</v>
       </c>
@@ -12821,7 +12834,7 @@
       <c r="M97" s="22"/>
       <c r="N97" s="22"/>
     </row>
-    <row r="98" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>198</v>
       </c>
@@ -12843,7 +12856,7 @@
       <c r="M98" s="22"/>
       <c r="N98" s="22"/>
     </row>
-    <row r="99" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>198</v>
       </c>
@@ -12865,7 +12878,7 @@
       <c r="M99" s="22"/>
       <c r="N99" s="22"/>
     </row>
-    <row r="100" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
@@ -12887,7 +12900,7 @@
       <c r="M100" s="22"/>
       <c r="N100" s="22"/>
     </row>
-    <row r="101" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>198</v>
       </c>
@@ -12909,7 +12922,7 @@
       <c r="M101" s="22"/>
       <c r="N101" s="22"/>
     </row>
-    <row r="102" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>198</v>
       </c>
@@ -12931,7 +12944,7 @@
       <c r="M102" s="22"/>
       <c r="N102" s="22"/>
     </row>
-    <row r="103" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>198</v>
       </c>
@@ -12953,7 +12966,7 @@
       <c r="M103" s="22"/>
       <c r="N103" s="22"/>
     </row>
-    <row r="104" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>198</v>
       </c>
@@ -12975,7 +12988,7 @@
       <c r="M104" s="22"/>
       <c r="N104" s="22"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>198</v>
       </c>
@@ -12997,7 +13010,7 @@
       <c r="M105" s="22"/>
       <c r="N105" s="22"/>
     </row>
-    <row r="106" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>198</v>
       </c>
@@ -13019,7 +13032,7 @@
       <c r="M106" s="22"/>
       <c r="N106" s="22"/>
     </row>
-    <row r="107" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>198</v>
       </c>
@@ -13041,7 +13054,7 @@
       <c r="M107" s="22"/>
       <c r="N107" s="22"/>
     </row>
-    <row r="108" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>198</v>
       </c>
@@ -13063,7 +13076,7 @@
       <c r="M108" s="22"/>
       <c r="N108" s="22"/>
     </row>
-    <row r="109" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>198</v>
       </c>
@@ -13085,7 +13098,7 @@
       <c r="M109" s="22"/>
       <c r="N109" s="22"/>
     </row>
-    <row r="110" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>198</v>
       </c>
@@ -13107,7 +13120,7 @@
       <c r="M110" s="22"/>
       <c r="N110" s="22"/>
     </row>
-    <row r="111" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>198</v>
       </c>
@@ -13131,7 +13144,7 @@
       <c r="M111" s="22"/>
       <c r="N111" s="22"/>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>198</v>
       </c>
@@ -13155,7 +13168,7 @@
       <c r="M112" s="22"/>
       <c r="N112" s="22"/>
     </row>
-    <row r="113" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>198</v>
       </c>
@@ -13179,7 +13192,7 @@
       <c r="M113" s="22"/>
       <c r="N113" s="22"/>
     </row>
-    <row r="114" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>198</v>
       </c>
@@ -13203,7 +13216,7 @@
       <c r="M114" s="22"/>
       <c r="N114" s="22"/>
     </row>
-    <row r="115" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>198</v>
       </c>
@@ -13227,7 +13240,7 @@
       <c r="M115" s="22"/>
       <c r="N115" s="22"/>
     </row>
-    <row r="116" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>198</v>
       </c>
@@ -13251,7 +13264,7 @@
       <c r="M116" s="22"/>
       <c r="N116" s="22"/>
     </row>
-    <row r="117" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>198</v>
       </c>
@@ -13275,7 +13288,7 @@
       <c r="M117" s="22"/>
       <c r="N117" s="22"/>
     </row>
-    <row r="118" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>198</v>
       </c>
@@ -13299,7 +13312,7 @@
       <c r="M118" s="22"/>
       <c r="N118" s="22"/>
     </row>
-    <row r="119" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>198</v>
       </c>
@@ -13323,7 +13336,7 @@
       <c r="M119" s="22"/>
       <c r="N119" s="22"/>
     </row>
-    <row r="120" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>198</v>
       </c>
@@ -13347,7 +13360,7 @@
       <c r="M120" s="22"/>
       <c r="N120" s="22"/>
     </row>
-    <row r="121" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>198</v>
       </c>
@@ -13371,7 +13384,7 @@
       <c r="M121" s="22"/>
       <c r="N121" s="22"/>
     </row>
-    <row r="122" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>198</v>
       </c>
@@ -13395,7 +13408,7 @@
       <c r="M122" s="22"/>
       <c r="N122" s="22"/>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="19" t="s">
         <v>227</v>
       </c>
@@ -13413,7 +13426,7 @@
       <c r="M123" s="22"/>
       <c r="N123" s="22"/>
     </row>
-    <row r="124" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>228</v>
       </c>
@@ -13439,7 +13452,7 @@
       <c r="M124" s="22"/>
       <c r="N124" s="22"/>
     </row>
-    <row r="125" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>228</v>
       </c>
@@ -13465,7 +13478,7 @@
       <c r="M125" s="22"/>
       <c r="N125" s="22"/>
     </row>
-    <row r="126" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>228</v>
       </c>
@@ -13491,7 +13504,7 @@
       <c r="M126" s="22"/>
       <c r="N126" s="22"/>
     </row>
-    <row r="127" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>228</v>
       </c>
@@ -13517,7 +13530,7 @@
       <c r="M127" s="22"/>
       <c r="N127" s="22"/>
     </row>
-    <row r="128" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>228</v>
       </c>
@@ -13543,7 +13556,7 @@
       <c r="M128" s="22"/>
       <c r="N128" s="22"/>
     </row>
-    <row r="129" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>228</v>
       </c>
@@ -13569,7 +13582,7 @@
       <c r="M129" s="22"/>
       <c r="N129" s="22"/>
     </row>
-    <row r="130" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>228</v>
       </c>
@@ -13595,7 +13608,7 @@
       <c r="M130" s="22"/>
       <c r="N130" s="22"/>
     </row>
-    <row r="131" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>228</v>
       </c>
@@ -13621,7 +13634,7 @@
       <c r="M131" s="22"/>
       <c r="N131" s="22"/>
     </row>
-    <row r="132" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>228</v>
       </c>
@@ -13647,7 +13660,7 @@
       <c r="M132" s="22"/>
       <c r="N132" s="22"/>
     </row>
-    <row r="133" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>228</v>
       </c>
@@ -13673,7 +13686,7 @@
       <c r="M133" s="22"/>
       <c r="N133" s="22"/>
     </row>
-    <row r="134" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" ht="48" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>228</v>
       </c>
@@ -13699,7 +13712,7 @@
       <c r="M134" s="22"/>
       <c r="N134" s="22"/>
     </row>
-    <row r="135" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>228</v>
       </c>
@@ -13725,7 +13738,7 @@
       <c r="M135" s="22"/>
       <c r="N135" s="22"/>
     </row>
-    <row r="136" spans="1:14" ht="36" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>228</v>
       </c>
@@ -13751,7 +13764,7 @@
       <c r="M136" s="22"/>
       <c r="N136" s="22"/>
     </row>
-    <row r="137" spans="1:14" ht="48" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>228</v>
       </c>
@@ -13777,7 +13790,7 @@
       <c r="M137" s="22"/>
       <c r="N137" s="22"/>
     </row>
-    <row r="138" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>228</v>
       </c>
@@ -13803,7 +13816,7 @@
       <c r="M138" s="22"/>
       <c r="N138" s="22"/>
     </row>
-    <row r="139" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>228</v>
       </c>
@@ -13829,7 +13842,7 @@
       <c r="M139" s="22"/>
       <c r="N139" s="22"/>
     </row>
-    <row r="140" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>228</v>
       </c>
@@ -13855,7 +13868,7 @@
       <c r="M140" s="22"/>
       <c r="N140" s="22"/>
     </row>
-    <row r="141" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>228</v>
       </c>
@@ -13881,7 +13894,7 @@
       <c r="M141" s="22"/>
       <c r="N141" s="22"/>
     </row>
-    <row r="142" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>228</v>
       </c>
@@ -13907,7 +13920,7 @@
       <c r="M142" s="22"/>
       <c r="N142" s="22"/>
     </row>
-    <row r="143" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>228</v>
       </c>
@@ -13933,7 +13946,7 @@
       <c r="M143" s="22"/>
       <c r="N143" s="22"/>
     </row>
-    <row r="144" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" ht="24" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>228</v>
       </c>
@@ -13959,7 +13972,7 @@
       <c r="M144" s="22"/>
       <c r="N144" s="22"/>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>228</v>
       </c>
@@ -14004,44 +14017,44 @@
       <selection sqref="A1:N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="22"/>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="165" t="s">
         <v>247</v>
       </c>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="154" t="s">
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="163" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154" t="s">
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="154"/>
-      <c r="K1" s="154"/>
-      <c r="L1" s="154"/>
-      <c r="M1" s="154"/>
-    </row>
-    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+    </row>
+    <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>249</v>
       </c>
@@ -14082,7 +14095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
@@ -14097,7 +14110,7 @@
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>250</v>
       </c>
@@ -14128,7 +14141,7 @@
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>251</v>
       </c>
@@ -14159,7 +14172,7 @@
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>252</v>
       </c>
@@ -14198,7 +14211,7 @@
       </c>
       <c r="M6" s="22"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>253</v>
       </c>
@@ -14231,7 +14244,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>254</v>
       </c>
@@ -14270,7 +14283,7 @@
       </c>
       <c r="M8" s="22"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>255</v>
       </c>
@@ -14309,7 +14322,7 @@
       </c>
       <c r="M9" s="22"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>256</v>
       </c>
@@ -14348,7 +14361,7 @@
       </c>
       <c r="M10" s="22"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>257</v>
       </c>
@@ -14387,7 +14400,7 @@
       </c>
       <c r="M11" s="22"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -14402,7 +14415,7 @@
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="20"/>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -14428,12 +14441,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14642,15 +14652,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA5AFEC-4C52-4B71-95A6-1FE1FA4F56A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31FAAA58-AFCA-4268-AEC1-83ECDDB73B54}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="a3065947-0070-40a4-af96-7ed7bf5d4c14"/>
+    <ds:schemaRef ds:uri="cd6f8ff5-cd79-4d23-bab8-c57789527dcf"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -14675,18 +14697,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31FAAA58-AFCA-4268-AEC1-83ECDDB73B54}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA5AFEC-4C52-4B71-95A6-1FE1FA4F56A5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="a3065947-0070-40a4-af96-7ed7bf5d4c14"/>
-    <ds:schemaRef ds:uri="cd6f8ff5-cd79-4d23-bab8-c57789527dcf"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>